--- a/public/User.xlsx
+++ b/public/User.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nepac\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quang.tranthanh/Sites/quan-ly-lich-cong-tac-fe/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F6D706-66EC-4434-A920-59252C0D9299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBB445F-FF69-874F-B3DF-A96427D73BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2928" yWindow="2820" windowWidth="17280" windowHeight="9420" xr2:uid="{33D66249-8356-4BCA-A66B-696774180BC4}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17260" xr2:uid="{33D66249-8356-4BCA-A66B-696774180BC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,48 +35,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>lebach</t>
   </si>
   <si>
-    <t>abcd@gmail.com</t>
-  </si>
-  <si>
-    <t>abacd@gmail.com</t>
-  </si>
-  <si>
-    <t>abcaad@gmail.com</t>
-  </si>
-  <si>
-    <t>acbcd@gmail.com</t>
-  </si>
-  <si>
-    <t>abrcd@gmail.com</t>
-  </si>
-  <si>
-    <t>abbcd@gmail.com</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>department_id</t>
+    <t>Lê Văn Bách</t>
+  </si>
+  <si>
+    <t>Phòng quản lý vật tư</t>
+  </si>
+  <si>
+    <t>admin|qtvt|qtct|user</t>
+  </si>
+  <si>
+    <t>ho_ten</t>
+  </si>
+  <si>
+    <t>ten_dang_nhap</t>
+  </si>
+  <si>
+    <t>vai_tro</t>
+  </si>
+  <si>
+    <t>mat_khau</t>
+  </si>
+  <si>
+    <t>so_dien_thoai</t>
+  </si>
+  <si>
+    <t>ten_phong_ban</t>
   </si>
 </sst>
 </file>
@@ -88,7 +75,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -97,7 +84,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -124,9 +111,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -146,9 +136,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -186,7 +176,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -292,7 +282,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -434,7 +424,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -442,144 +432,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03EFDAFD-5693-4D2D-A415-4CB6C086F2BC}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2">
         <v>123345</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>123345</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>123345</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>123345</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>123345</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>123345</v>
-      </c>
-      <c r="F7">
+      <c r="E2">
+        <v>99999999</v>
+      </c>
+      <c r="F2" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{2B6437BB-BA18-4019-846A-75175DA57870}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{3ADE817B-E70C-4670-AF41-AFC2C9174837}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{0BB8BDA6-E0A6-485B-A9CA-B1B7A328E81C}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{47458303-5DF7-4646-8FE1-16DB344A415B}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{39E35040-BEFA-4B49-A7F1-F29334210588}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{B9D71A30-F67A-4B29-81DB-BA6F2F84A2C9}"/>
+    <hyperlink ref="B2" r:id="rId1" display="abcd@gmail.com" xr:uid="{2B6437BB-BA18-4019-846A-75175DA57870}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
